--- a/data/raw_data/2014 to 2019 scwds data.xlsx
+++ b/data/raw_data/2014 to 2019 scwds data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr backupFile="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jjw_t\Desktop\CDV_Project\JonathanWilson_Project\data\raw_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jjw_t\Desktop\CDVGA_Project_JJW\data\raw_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D01ECC16-2D74-4144-8582-79A46D6362C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2CD7303-B292-4CE5-A381-BE564A5D41D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -14550,9 +14552,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U612"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A345" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D354" sqref="D354"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A536" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O548" sqref="O548"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
